--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H2">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I2">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J2">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N2">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q2">
-        <v>18.42256802277778</v>
+        <v>28.24973246857667</v>
       </c>
       <c r="R2">
-        <v>165.803112205</v>
+        <v>254.24759221719</v>
       </c>
       <c r="S2">
-        <v>0.03588005797427789</v>
+        <v>0.01046742333567159</v>
       </c>
       <c r="T2">
-        <v>0.03588005797427789</v>
+        <v>0.01046742333567159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H3">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I3">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J3">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P3">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q3">
-        <v>0.07414640116666668</v>
+        <v>0.09920089417333333</v>
       </c>
       <c r="R3">
-        <v>0.6673176105</v>
+        <v>0.89280804756</v>
       </c>
       <c r="S3">
-        <v>0.0001444085954333163</v>
+        <v>3.675708277041091E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001444085954333163</v>
+        <v>3.67570827704109E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H4">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I4">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J4">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N4">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O4">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P4">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q4">
-        <v>121.7050964405139</v>
+        <v>277.8599427815323</v>
       </c>
       <c r="R4">
-        <v>1095.345867964625</v>
+        <v>2500.73948503379</v>
       </c>
       <c r="S4">
-        <v>0.2370345931496412</v>
+        <v>0.1029559360378015</v>
       </c>
       <c r="T4">
-        <v>0.2370345931496411</v>
+        <v>0.1029559360378015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H5">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I5">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J5">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N5">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O5">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P5">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q5">
-        <v>7.388268374638891</v>
+        <v>11.97624474649778</v>
       </c>
       <c r="R5">
-        <v>66.49441537175001</v>
+        <v>107.78620271848</v>
       </c>
       <c r="S5">
-        <v>0.01438949755993879</v>
+        <v>0.004437579147790111</v>
       </c>
       <c r="T5">
-        <v>0.01438949755993879</v>
+        <v>0.004437579147790111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7627916666666668</v>
+        <v>1.020543333333333</v>
       </c>
       <c r="H6">
-        <v>2.288375</v>
+        <v>3.06163</v>
       </c>
       <c r="I6">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="J6">
-        <v>0.6223788491141802</v>
+        <v>0.2074480126456944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N6">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O6">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P6">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q6">
-        <v>171.9695126646806</v>
+        <v>241.6805375857889</v>
       </c>
       <c r="R6">
-        <v>1547.725613982125</v>
+        <v>2175.1248382721</v>
       </c>
       <c r="S6">
-        <v>0.334930291834889</v>
+        <v>0.08955031704166085</v>
       </c>
       <c r="T6">
-        <v>0.3349302918348889</v>
+        <v>0.08955031704166085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.462815</v>
+        <v>2.383042</v>
       </c>
       <c r="H7">
-        <v>1.388445</v>
+        <v>7.149126</v>
       </c>
       <c r="I7">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J7">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N7">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q7">
-        <v>11.17767955793333</v>
+        <v>65.96515479798201</v>
       </c>
       <c r="R7">
-        <v>100.5991160214</v>
+        <v>593.6863931818381</v>
       </c>
       <c r="S7">
-        <v>0.02176980918516252</v>
+        <v>0.0244421854770356</v>
       </c>
       <c r="T7">
-        <v>0.02176980918516251</v>
+        <v>0.02444218547703559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.462815</v>
+        <v>2.383042</v>
       </c>
       <c r="H8">
-        <v>1.388445</v>
+        <v>7.149126</v>
       </c>
       <c r="I8">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J8">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P8">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q8">
-        <v>0.04498746926</v>
+        <v>0.231641214568</v>
       </c>
       <c r="R8">
-        <v>0.40488722334</v>
+        <v>2.084770931112</v>
       </c>
       <c r="S8">
-        <v>8.761824101662135E-05</v>
+        <v>8.583042892775961E-05</v>
       </c>
       <c r="T8">
-        <v>8.761824101662133E-05</v>
+        <v>8.58304289277596E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.462815</v>
+        <v>2.383042</v>
       </c>
       <c r="H9">
-        <v>1.388445</v>
+        <v>7.149126</v>
       </c>
       <c r="I9">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J9">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N9">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O9">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P9">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q9">
-        <v>73.84315622542167</v>
+        <v>648.8229280801287</v>
       </c>
       <c r="R9">
-        <v>664.588406028795</v>
+        <v>5839.406352721157</v>
       </c>
       <c r="S9">
-        <v>0.1438179912320549</v>
+        <v>0.2404095070868079</v>
       </c>
       <c r="T9">
-        <v>0.1438179912320549</v>
+        <v>0.2404095070868078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.462815</v>
+        <v>2.383042</v>
       </c>
       <c r="H10">
-        <v>1.388445</v>
+        <v>7.149126</v>
       </c>
       <c r="I10">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623727</v>
       </c>
       <c r="J10">
-        <v>0.3776211508858198</v>
+        <v>0.4844060127623726</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N10">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O10">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P10">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q10">
-        <v>4.482746177276668</v>
+        <v>27.96539186627733</v>
       </c>
       <c r="R10">
-        <v>40.34471559549001</v>
+        <v>251.688526796496</v>
       </c>
       <c r="S10">
-        <v>0.008730660813725557</v>
+        <v>0.01036206610940059</v>
       </c>
       <c r="T10">
-        <v>0.008730660813725553</v>
+        <v>0.01036206610940059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.383042</v>
+      </c>
+      <c r="H11">
+        <v>7.149126</v>
+      </c>
+      <c r="I11">
+        <v>0.4844060127623727</v>
+      </c>
+      <c r="J11">
+        <v>0.4844060127623726</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>236.8155566666667</v>
+      </c>
+      <c r="N11">
+        <v>710.44667</v>
+      </c>
+      <c r="O11">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="P11">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="Q11">
+        <v>564.3414177900468</v>
+      </c>
+      <c r="R11">
+        <v>5079.07276011042</v>
+      </c>
+      <c r="S11">
+        <v>0.2091064236602009</v>
+      </c>
+      <c r="T11">
+        <v>0.2091064236602008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.547785</v>
+      </c>
+      <c r="I12">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J12">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.681071</v>
+      </c>
+      <c r="N12">
+        <v>83.04321300000001</v>
+      </c>
+      <c r="O12">
+        <v>0.05045805550111082</v>
+      </c>
+      <c r="P12">
+        <v>0.05045805550111081</v>
+      </c>
+      <c r="Q12">
+        <v>41.96251982591167</v>
+      </c>
+      <c r="R12">
+        <v>377.662678433205</v>
+      </c>
+      <c r="S12">
+        <v>0.01554844668840363</v>
+      </c>
+      <c r="T12">
+        <v>0.01554844668840363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.547785</v>
+      </c>
+      <c r="I13">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J13">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.097204</v>
+      </c>
+      <c r="N13">
+        <v>0.291612</v>
+      </c>
+      <c r="O13">
+        <v>0.0001771869602491167</v>
+      </c>
+      <c r="P13">
+        <v>0.0001771869602491166</v>
+      </c>
+      <c r="Q13">
+        <v>0.1473542977133333</v>
+      </c>
+      <c r="R13">
+        <v>1.32618867942</v>
+      </c>
+      <c r="S13">
+        <v>5.459944855094612E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.459944855094611E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.462815</v>
-      </c>
-      <c r="H11">
-        <v>1.388445</v>
-      </c>
-      <c r="I11">
-        <v>0.3776211508858198</v>
-      </c>
-      <c r="J11">
-        <v>0.3776211508858198</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>225.4475503333333</v>
-      </c>
-      <c r="N11">
-        <v>676.342651</v>
-      </c>
-      <c r="O11">
-        <v>0.5381453632487493</v>
-      </c>
-      <c r="P11">
-        <v>0.5381453632487492</v>
-      </c>
-      <c r="Q11">
-        <v>104.3405080075217</v>
-      </c>
-      <c r="R11">
-        <v>939.0645720676952</v>
-      </c>
-      <c r="S11">
-        <v>0.2032150714138603</v>
-      </c>
-      <c r="T11">
-        <v>0.2032150714138602</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.547785</v>
+      </c>
+      <c r="I14">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J14">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>272.2666776666667</v>
+      </c>
+      <c r="N14">
+        <v>816.800033</v>
+      </c>
+      <c r="O14">
+        <v>0.4962975288350554</v>
+      </c>
+      <c r="P14">
+        <v>0.4962975288350553</v>
+      </c>
+      <c r="Q14">
+        <v>412.7367708974339</v>
+      </c>
+      <c r="R14">
+        <v>3714.630938076905</v>
+      </c>
+      <c r="S14">
+        <v>0.1529320857104461</v>
+      </c>
+      <c r="T14">
+        <v>0.152932085710446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.547785</v>
+      </c>
+      <c r="I15">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J15">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.73516533333333</v>
+      </c>
+      <c r="N15">
+        <v>35.205496</v>
+      </c>
+      <c r="O15">
+        <v>0.02139128300722342</v>
+      </c>
+      <c r="P15">
+        <v>0.02139128300722341</v>
+      </c>
+      <c r="Q15">
+        <v>17.78966962515111</v>
+      </c>
+      <c r="R15">
+        <v>160.10702662636</v>
+      </c>
+      <c r="S15">
+        <v>0.006591637750032712</v>
+      </c>
+      <c r="T15">
+        <v>0.006591637750032711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.515928333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.547785</v>
+      </c>
+      <c r="I16">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="J16">
+        <v>0.3081459745919329</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>236.8155566666667</v>
+      </c>
+      <c r="N16">
+        <v>710.44667</v>
+      </c>
+      <c r="O16">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="P16">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="Q16">
+        <v>358.9954121251056</v>
+      </c>
+      <c r="R16">
+        <v>3230.95870912595</v>
+      </c>
+      <c r="S16">
+        <v>0.1330192049944995</v>
+      </c>
+      <c r="T16">
+        <v>0.1330192049944995</v>
       </c>
     </row>
   </sheetData>
